--- a/7. Statistic Analysis/Results/Java/Databases/Wilcoxon - Bears.xlsx
+++ b/7. Statistic Analysis/Results/Java/Databases/Wilcoxon - Bears.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve"><![CDATA[Valid]]></t>
   </si>
@@ -31,9 +31,18 @@
     <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC) & NbOperators]]></t>
   </si>
   <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC) & DifficultyLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC) & TimeToImplement]]></t>
+  </si>
+  <si>
     <t xml:space="preserve"><![CDATA[MaintainabilityIndex & MaintainabilityIndex]]></t>
   </si>
   <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperands & NbUniqueOperands]]></t>
+  </si>
+  <si>
     <t xml:space="preserve"><![CDATA[NbUniqueOperands & ProgramLength]]></t>
   </si>
   <si>
@@ -46,13 +55,22 @@
     <t xml:space="preserve"><![CDATA[NbUniqueOperators & NbOperands]]></t>
   </si>
   <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperators & NbUniqueOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperators & ProgramLength]]></t>
+  </si>
+  <si>
     <t xml:space="preserve"><![CDATA[NbOperators & NbOperators]]></t>
   </si>
   <si>
     <t xml:space="preserve"><![CDATA[ProgramLength & NbUniqueOperands]]></t>
   </si>
   <si>
-    <t xml:space="preserve"><![CDATA[ProgramLength & ProgramLength]]></t>
+    <t xml:space="preserve"><![CDATA[ProgramLength & NbUniqueOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[VocabularySize & VocabularySize]]></t>
   </si>
   <si>
     <t xml:space="preserve"><![CDATA[VocabularySize & EffortToImplement]]></t>
@@ -61,6 +79,9 @@
     <t xml:space="preserve"><![CDATA[ProgramVolume & ProgramVolume]]></t>
   </si>
   <si>
+    <t xml:space="preserve"><![CDATA[DifficultyLevel & CyclomaticComplexity(CC)]]></t>
+  </si>
+  <si>
     <t xml:space="preserve"><![CDATA[DifficultyLevel & DifficultyLevel]]></t>
   </si>
   <si>
@@ -74,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve"><![CDATA[EffortToImplement & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[TimeToImplement & CyclomaticComplexity(CC)]]></t>
   </si>
   <si>
     <t xml:space="preserve"><![CDATA[TimeToImplement & DifficultyLevel]]></t>
@@ -410,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,16 +466,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>366.500000</v>
+        <v>136.000000</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1.062811</v>
+        <v>1.525685</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>0.287868</v>
+        <v>0.127089</v>
       </c>
     </row>
     <row r="3">
@@ -459,16 +483,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>333.000000</v>
+        <v>135.000000</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>1.034980</v>
+        <v>1.548457</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>0.300679</v>
+        <v>0.121513</v>
       </c>
     </row>
     <row r="4">
@@ -476,16 +500,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>421.500000</v>
+        <v>135.000000</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>0.116625</v>
+        <v>1.548457</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>0.907157</v>
+        <v>0.121513</v>
       </c>
     </row>
     <row r="5">
@@ -493,16 +517,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>351.000000</v>
+        <v>133.000000</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>1.256618</v>
+        <v>1.079414</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>0.208893</v>
+        <v>0.280404</v>
       </c>
     </row>
     <row r="6">
@@ -510,16 +534,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>386.000000</v>
+        <v>134.500000</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>0.576647</v>
+        <v>0.753394</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>0.564178</v>
+        <v>0.451214</v>
       </c>
     </row>
     <row r="7">
@@ -527,16 +551,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>403.000000</v>
+        <v>171.000000</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>0.606428</v>
+        <v>0.432450</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>0.544231</v>
+        <v>0.665415</v>
       </c>
     </row>
     <row r="8">
@@ -544,16 +568,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>135.500000</v>
+        <v>140.000000</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>1.015919</v>
+        <v>1.434600</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>0.309669</v>
+        <v>0.151402</v>
       </c>
     </row>
     <row r="9">
@@ -561,16 +585,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>419.000000</v>
+        <v>195.000000</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>0.149021</v>
+        <v>0.182171</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>0.881537</v>
+        <v>0.855448</v>
       </c>
     </row>
     <row r="10">
@@ -578,16 +602,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>360.500000</v>
+        <v>190.000000</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>0.145023</v>
+        <v>0.296029</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>0.884693</v>
+        <v>0.767209</v>
       </c>
     </row>
     <row r="11">
@@ -595,16 +619,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>398.000000</v>
+        <v>149.000000</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>0.668946</v>
+        <v>0.673046</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>0.503530</v>
+        <v>0.500918</v>
       </c>
     </row>
     <row r="12">
@@ -612,16 +636,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>388.000000</v>
+        <v>143.000000</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>0.793983</v>
+        <v>1.366285</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>0.427206</v>
+        <v>0.171850</v>
       </c>
     </row>
     <row r="13">
@@ -629,16 +653,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>42.500000</v>
+        <v>39.000000</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>0.209657</v>
+        <v>1.192720</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>0.833936</v>
+        <v>0.232980</v>
       </c>
     </row>
     <row r="14">
@@ -646,16 +670,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>161.500000</v>
+        <v>161.000000</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>0.026907</v>
+        <v>0.956400</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>0.978534</v>
+        <v>0.338871</v>
       </c>
     </row>
     <row r="15">
@@ -663,16 +687,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>390.000000</v>
+        <v>143.000000</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>0.768975</v>
+        <v>1.366285</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>0.441909</v>
+        <v>0.171850</v>
       </c>
     </row>
     <row r="16">
@@ -680,16 +704,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>380.000000</v>
+        <v>169.000000</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>0.894012</v>
+        <v>0.165087</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>0.371316</v>
+        <v>0.868876</v>
       </c>
     </row>
     <row r="17">
@@ -697,16 +721,16 @@
         <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>40.000000</v>
+        <v>177.000000</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>0.784706</v>
+        <v>0.592057</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>0.432627</v>
+        <v>0.553813</v>
       </c>
     </row>
     <row r="18">
@@ -714,16 +738,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>127.000000</v>
+        <v>154.000000</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>0.955195</v>
+        <v>1.115800</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>0.339480</v>
+        <v>0.264509</v>
       </c>
     </row>
     <row r="19">
@@ -731,16 +755,152 @@
         <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>40.000000</v>
+        <v>136.000000</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>0.784706</v>
+        <v>1.525685</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>0.432627</v>
+        <v>0.127089</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>23.500000</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>0.407718</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>0.683481</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>18</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>64.500000</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>0.914557</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>0.360425</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>158.000000</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>1.024714</v>
+      </c>
+      <c r="E22" t="n" s="0">
+        <v>0.305499</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>28</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>152.000000</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>1.161343</v>
+      </c>
+      <c r="E23" t="n" s="0">
+        <v>0.245503</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>11</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>24.000000</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>0.800198</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>0.423597</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>28</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>136.000000</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>1.525685</v>
+      </c>
+      <c r="E25" t="n" s="0">
+        <v>0.127089</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>18</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>47.000000</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>1.676689</v>
+      </c>
+      <c r="E26" t="n" s="0">
+        <v>0.093604</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>11</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>24.000000</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>0.800198</v>
+      </c>
+      <c r="E27" t="n" s="0">
+        <v>0.423597</v>
       </c>
     </row>
   </sheetData>
